--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 7,93</t>
+          <t>-6,51; 13,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 13,88</t>
+          <t>-3,77; 15,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 16,44</t>
+          <t>-8,33; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 10,45</t>
+          <t>-10,34; 6,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 3,66</t>
+          <t>-12,51; 4,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 6,14</t>
+          <t>-9,39; 11,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 7,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 7,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 9,81</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 49,85</t>
+          <t>-25,82; 100,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 88,33</t>
+          <t>-15,05; 121,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 102,41</t>
+          <t>-33,81; 104,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 27,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 20,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 58,95</t>
+          <t>-37,07; 40,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 21,63</t>
+          <t>-43,41; 25,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 35,41</t>
+          <t>-35,79; 66,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 60,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 42,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 45,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; 57,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,36</t>
+          <t>-5,43; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 6,83</t>
+          <t>-7,29; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,85</t>
+          <t>-11,3; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,31</t>
+          <t>-6,3; 6,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,65</t>
+          <t>-8,02; 3,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,0</t>
+          <t>-9,36; 3,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 5,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 1,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>-11,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,28%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-13,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 45,18</t>
+          <t>-23,51; 66,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 41,3</t>
+          <t>-30,32; 61,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 71,81</t>
+          <t>-48,26; 24,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 28,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 15,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 33,52</t>
+          <t>-24,23; 32,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 24,96</t>
+          <t>-30,62; 19,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 16,55</t>
+          <t>-37,3; 20,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 41,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,08; 34,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,46; 25,53</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-34,6; 9,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 4,43</t>
+          <t>-7,87; 7,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 5,26</t>
+          <t>-7,95; 5,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 20,89</t>
+          <t>-6,15; 9,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,75</t>
+          <t>-5,43; 7,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,29</t>
+          <t>-5,25; 6,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,91</t>
+          <t>-9,4; 3,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 5,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 4,03</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 3,88</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-15,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 32,16</t>
+          <t>-37,49; 60,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 39,39</t>
+          <t>-37,09; 47,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,85; 149,76</t>
+          <t>-28,76; 70,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 31,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 33,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 92,1</t>
+          <t>-23,82; 49,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 20,98</t>
+          <t>-23,01; 41,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 25,22</t>
+          <t>-41,51; 20,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,33; 101,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; 33,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 26,72</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; 25,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,16</t>
+          <t>-5,57; 5,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,93</t>
+          <t>-2,53; 10,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 7,27</t>
+          <t>-7,86; 3,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,93</t>
+          <t>-3,45; 9,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 8,31</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 25,23</t>
+          <t>-27,84; 36,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 32,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,28; 69,14</t>
+          <t>-13,68; 65,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 11,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 37,43</t>
+          <t>-36,73; 18,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 12,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 10,68</t>
+          <t>-16,23; 55,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 46,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 19,04</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 49,16</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 5,14</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 6,09</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 5,16</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 2,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 2,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 2,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,61</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 3,11</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 2,77</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 33,62</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 39,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 33,76</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; 13,6</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 12,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 15,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 14,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 16,99</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 15,17</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
